--- a/doc/french/vocab.xlsx
+++ b/doc/french/vocab.xlsx
@@ -5,17 +5,21 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="211" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="211" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="anglais" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="verb" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="nom" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="pronom" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="prep" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1828" uniqueCount="930">
   <si>
     <t>on</t>
   </si>
@@ -656,6 +660,9 @@
     <t>center</t>
   </si>
   <si>
+    <t>century</t>
+  </si>
+  <si>
     <t>chair</t>
   </si>
   <si>
@@ -1163,42 +1170,45 @@
     <t>wolf</t>
   </si>
   <si>
+    <t>erase</t>
+  </si>
+  <si>
+    <t>fat</t>
+  </si>
+  <si>
     <t>eraser</t>
   </si>
   <si>
-    <t>fat</t>
-  </si>
-  <si>
     <t>fox</t>
   </si>
   <si>
     <t>thin</t>
   </si>
   <si>
+    <t>turtle</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
-    <t>turtle</t>
+    <t>fast</t>
   </si>
   <si>
     <t>fall</t>
   </si>
   <si>
-    <t>fast</t>
+    <t>slow</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>slow</t>
+    <t>giraffe</t>
   </si>
   <si>
     <t>farm</t>
   </si>
   <si>
-    <t>giraffe</t>
-  </si>
-  <si>
     <t>farmer</t>
   </si>
   <si>
@@ -1214,36 +1224,39 @@
     <t>heavy</t>
   </si>
   <si>
+    <t>truck</t>
+  </si>
+  <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>truck</t>
+    <t>travel</t>
   </si>
   <si>
     <t>feather</t>
   </si>
   <si>
-    <t>travel</t>
-  </si>
-  <si>
     <t>February</t>
   </si>
   <si>
     <t>feed</t>
   </si>
   <si>
+    <t>ship</t>
+  </si>
+  <si>
     <t>fence</t>
   </si>
   <si>
-    <t>ship</t>
+    <t>defence</t>
+  </si>
+  <si>
+    <t>shipping</t>
   </si>
   <si>
     <t>field</t>
   </si>
   <si>
-    <t>shipping</t>
-  </si>
-  <si>
     <t>find</t>
   </si>
   <si>
@@ -1253,42 +1266,42 @@
     <t>lake</t>
   </si>
   <si>
+    <t>train</t>
+  </si>
+  <si>
     <t>fire</t>
   </si>
   <si>
-    <t>train</t>
-  </si>
-  <si>
     <t>Fire station</t>
   </si>
   <si>
+    <t>that</t>
+  </si>
+  <si>
     <t>firefighter</t>
   </si>
   <si>
-    <t>that</t>
+    <t>zoo</t>
   </si>
   <si>
     <t>fireman</t>
   </si>
   <si>
-    <t>zoo</t>
-  </si>
-  <si>
     <t>taxi</t>
   </si>
   <si>
+    <t>get up</t>
+  </si>
+  <si>
     <t>five</t>
   </si>
   <si>
-    <t>get up</t>
+    <t>o'clock</t>
   </si>
   <si>
     <t>flag</t>
   </si>
   <si>
-    <t>o'clock</t>
-  </si>
-  <si>
     <t>flat</t>
   </si>
   <si>
@@ -1298,6 +1311,9 @@
     <t>tooth</t>
   </si>
   <si>
+    <t>fluent</t>
+  </si>
+  <si>
     <t>wake up</t>
   </si>
   <si>
@@ -1307,48 +1323,48 @@
     <t>follow</t>
   </si>
   <si>
+    <t>school</t>
+  </si>
+  <si>
     <t>food</t>
   </si>
   <si>
-    <t>school</t>
-  </si>
-  <si>
     <t>hair</t>
   </si>
   <si>
     <t>morning</t>
   </si>
   <si>
+    <t>teeth</t>
+  </si>
+  <si>
     <t>forget</t>
   </si>
   <si>
-    <t>teeth</t>
+    <t>walk</t>
   </si>
   <si>
     <t>four</t>
   </si>
   <si>
-    <t>walk</t>
+    <t>pass</t>
   </si>
   <si>
     <t>french</t>
   </si>
   <si>
-    <t>pass</t>
+    <t>gate</t>
   </si>
   <si>
     <t>french fries</t>
   </si>
   <si>
-    <t>gate</t>
+    <t>take off</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>take off</t>
-  </si>
-  <si>
     <t>Friday</t>
   </si>
   <si>
@@ -1358,16 +1374,19 @@
     <t>stick</t>
   </si>
   <si>
+    <t>turn</t>
+  </si>
+  <si>
     <t>fruit</t>
   </si>
   <si>
-    <t>turn</t>
+    <t>put on</t>
   </si>
   <si>
     <t>full</t>
   </si>
   <si>
-    <t>put on</t>
+    <t>fool</t>
   </si>
   <si>
     <t>look at</t>
@@ -1379,120 +1398,135 @@
     <t>gas</t>
   </si>
   <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>guest</t>
+  </si>
+  <si>
     <t>twelve</t>
   </si>
   <si>
     <t>ten</t>
   </si>
   <si>
+    <t>geography</t>
+  </si>
+  <si>
     <t>nine</t>
   </si>
   <si>
+    <t>seven</t>
+  </si>
+  <si>
     <t>glass</t>
   </si>
   <si>
-    <t>seven</t>
+    <t>six</t>
   </si>
   <si>
     <t>glasses</t>
   </si>
   <si>
-    <t>six</t>
-  </si>
-  <si>
     <t>gloves</t>
   </si>
   <si>
     <t>glue</t>
   </si>
   <si>
+    <t>glue stick</t>
+  </si>
+  <si>
     <t>three</t>
   </si>
   <si>
+    <t>two</t>
+  </si>
+  <si>
     <t>go to bed</t>
   </si>
   <si>
-    <t>two</t>
+    <t>one</t>
   </si>
   <si>
     <t>goal</t>
   </si>
   <si>
-    <t>one</t>
+    <t>goose</t>
   </si>
   <si>
     <t>zero</t>
   </si>
   <si>
+    <t>shorts</t>
+  </si>
+  <si>
     <t>goods</t>
   </si>
   <si>
-    <t>shorts</t>
+    <t>rectangle</t>
   </si>
   <si>
     <t>grade</t>
   </si>
   <si>
-    <t>rectangle</t>
-  </si>
-  <si>
     <t>grandma</t>
   </si>
   <si>
+    <t>woods</t>
+  </si>
+  <si>
     <t>grandpa</t>
   </si>
   <si>
-    <t>woods</t>
-  </si>
-  <si>
     <t>man</t>
   </si>
   <si>
+    <t>make</t>
+  </si>
+  <si>
     <t>gray</t>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>line</t>
+  </si>
+  <si>
     <t>guitar</t>
   </si>
   <si>
-    <t>line</t>
-  </si>
-  <si>
     <t>push</t>
   </si>
   <si>
+    <t>stand</t>
+  </si>
+  <si>
     <t>hamburger</t>
   </si>
   <si>
-    <t>stand</t>
-  </si>
-  <si>
     <t>snowy</t>
   </si>
   <si>
+    <t>litter</t>
+  </si>
+  <si>
     <t>handbag</t>
   </si>
   <si>
-    <t>litter</t>
+    <t>tidy</t>
   </si>
   <si>
     <t>handsome</t>
   </si>
   <si>
-    <t>tidy</t>
+    <t>nice</t>
   </si>
   <si>
     <t>hang</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>shape</t>
   </si>
   <si>
@@ -1502,12 +1536,12 @@
     <t>snow</t>
   </si>
   <si>
+    <t>wear</t>
+  </si>
+  <si>
     <t>hat</t>
   </si>
   <si>
-    <t>wear</t>
-  </si>
-  <si>
     <t>throw</t>
   </si>
   <si>
@@ -1520,51 +1554,51 @@
     <t>hear</t>
   </si>
   <si>
+    <t>messy</t>
+  </si>
+  <si>
     <t>heart</t>
   </si>
   <si>
-    <t>messy</t>
-  </si>
-  <si>
     <t>helicopter</t>
   </si>
   <si>
+    <t>starry</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
-    <t>starry</t>
+    <t>park</t>
   </si>
   <si>
     <t>hen</t>
   </si>
   <si>
-    <t>park</t>
-  </si>
-  <si>
     <t>kite</t>
   </si>
   <si>
     <t>triangle</t>
   </si>
   <si>
+    <t>sundy</t>
+  </si>
+  <si>
     <t>hippo</t>
   </si>
   <si>
-    <t>sundy</t>
-  </si>
-  <si>
     <t>window</t>
   </si>
   <si>
     <t>hold</t>
   </si>
   <si>
+    <t>jacket</t>
+  </si>
+  <si>
     <t>hole</t>
   </si>
   <si>
-    <t>jacket</t>
-  </si>
-  <si>
     <t>home</t>
   </si>
   <si>
@@ -1583,18 +1617,18 @@
     <t>swing</t>
   </si>
   <si>
+    <t>tv</t>
+  </si>
+  <si>
     <t>house</t>
   </si>
   <si>
-    <t>tv</t>
+    <t>shirt</t>
   </si>
   <si>
     <t>hungry</t>
   </si>
   <si>
-    <t>shirt</t>
-  </si>
-  <si>
     <t>hurt</t>
   </si>
   <si>
@@ -1604,33 +1638,33 @@
     <t>path</t>
   </si>
   <si>
+    <t>square</t>
+  </si>
+  <si>
     <t>in danger</t>
   </si>
   <si>
-    <t>square</t>
+    <t>windy</t>
   </si>
   <si>
     <t>insect</t>
   </si>
   <si>
-    <t>windy</t>
+    <t>stop</t>
   </si>
   <si>
     <t>inside</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>instant noodles</t>
   </si>
   <si>
+    <t>run after</t>
+  </si>
+  <si>
     <t>intersect</t>
   </si>
   <si>
-    <t>run after</t>
-  </si>
-  <si>
     <t>interview</t>
   </si>
   <si>
@@ -1643,63 +1677,63 @@
     <t>trashcan</t>
   </si>
   <si>
+    <t>mirror</t>
+  </si>
+  <si>
     <t>jam</t>
   </si>
   <si>
-    <t>mirror</t>
-  </si>
-  <si>
     <t>January</t>
   </si>
   <si>
+    <t>pants</t>
+  </si>
+  <si>
     <t>jeans</t>
   </si>
   <si>
-    <t>pants</t>
+    <t>see</t>
   </si>
   <si>
     <t>job</t>
   </si>
   <si>
-    <t>see</t>
+    <t>river</t>
   </si>
   <si>
     <t>July</t>
   </si>
   <si>
-    <t>river</t>
-  </si>
-  <si>
     <t>watch</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>June</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>jungle</t>
   </si>
   <si>
+    <t>star</t>
+  </si>
+  <si>
     <t>just right</t>
   </si>
   <si>
-    <t>star</t>
+    <t>snowman</t>
   </si>
   <si>
     <t>kangaroo</t>
   </si>
   <si>
-    <t>snowman</t>
+    <t>skirt</t>
   </si>
   <si>
     <t>key</t>
   </si>
   <si>
-    <t>skirt</t>
-  </si>
-  <si>
     <t>wait</t>
   </si>
   <si>
@@ -1709,36 +1743,36 @@
     <t>oval</t>
   </si>
   <si>
+    <t>old</t>
+  </si>
+  <si>
     <t>kitten</t>
   </si>
   <si>
-    <t>old</t>
+    <t>shade</t>
   </si>
   <si>
     <t>knock</t>
   </si>
   <si>
-    <t>shade</t>
-  </si>
-  <si>
     <t>ladder</t>
   </si>
   <si>
+    <t>robot</t>
+  </si>
+  <si>
     <t>lamb</t>
   </si>
   <si>
-    <t>robot</t>
-  </si>
-  <si>
     <t>lamp</t>
   </si>
   <si>
+    <t>swan</t>
+  </si>
+  <si>
     <t>land</t>
   </si>
   <si>
-    <t>swan</t>
-  </si>
-  <si>
     <t>lantern</t>
   </si>
   <si>
@@ -1751,18 +1785,18 @@
     <t>lead</t>
   </si>
   <si>
+    <t>lion</t>
+  </si>
+  <si>
     <t>leaf</t>
   </si>
   <si>
-    <t>lion</t>
+    <t>take away</t>
   </si>
   <si>
     <t>learn</t>
   </si>
   <si>
-    <t>take away</t>
-  </si>
-  <si>
     <t>scared</t>
   </si>
   <si>
@@ -1781,12 +1815,12 @@
     <t>letter</t>
   </si>
   <si>
+    <t>thirsty</t>
+  </si>
+  <si>
     <t>lift</t>
   </si>
   <si>
-    <t>thirsty</t>
-  </si>
-  <si>
     <t>zebra</t>
   </si>
   <si>
@@ -1811,54 +1845,54 @@
     <t>pretty</t>
   </si>
   <si>
+    <t>uncle</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>uncle</t>
-  </si>
-  <si>
     <t>lucky</t>
   </si>
   <si>
     <t>lunch</t>
   </si>
   <si>
+    <t>Police officer</t>
+  </si>
+  <si>
     <t>mama</t>
   </si>
   <si>
-    <t>Police officer</t>
+    <t>pilot</t>
   </si>
   <si>
     <t>mammy</t>
   </si>
   <si>
-    <t>pilot</t>
-  </si>
-  <si>
     <t>spring</t>
   </si>
   <si>
+    <t>warm</t>
+  </si>
+  <si>
     <t>mango</t>
   </si>
   <si>
-    <t>warm</t>
-  </si>
-  <si>
     <t>manhole</t>
   </si>
   <si>
+    <t>summer</t>
+  </si>
+  <si>
     <t>map</t>
   </si>
   <si>
-    <t>summer</t>
+    <t>sunny</t>
   </si>
   <si>
     <t>March</t>
   </si>
   <si>
-    <t>sunny</t>
-  </si>
-  <si>
     <t>mat</t>
   </si>
   <si>
@@ -1877,24 +1911,24 @@
     <t>measure</t>
   </si>
   <si>
+    <t>winter</t>
+  </si>
+  <si>
     <t>meat</t>
   </si>
   <si>
-    <t>winter</t>
-  </si>
-  <si>
     <t>medal</t>
   </si>
   <si>
     <t>pick</t>
   </si>
   <si>
+    <t>swimming</t>
+  </si>
+  <si>
     <t>mice</t>
   </si>
   <si>
-    <t>swimming</t>
-  </si>
-  <si>
     <t>middle</t>
   </si>
   <si>
@@ -1916,24 +1950,24 @@
     <t>moon</t>
   </si>
   <si>
+    <t>soft</t>
+  </si>
+  <si>
     <t>mountain</t>
   </si>
   <si>
-    <t>soft</t>
-  </si>
-  <si>
     <t>mouse</t>
   </si>
   <si>
     <t>toilet</t>
   </si>
   <si>
+    <t>tub</t>
+  </si>
+  <si>
     <t>muscle</t>
   </si>
   <si>
-    <t>tub</t>
-  </si>
-  <si>
     <t>music</t>
   </si>
   <si>
@@ -1955,24 +1989,24 @@
     <t>newspaper</t>
   </si>
   <si>
+    <t>noodles</t>
+  </si>
+  <si>
     <t>night</t>
   </si>
   <si>
-    <t>noodles</t>
-  </si>
-  <si>
     <t>soda</t>
   </si>
   <si>
     <t>paper</t>
   </si>
   <si>
+    <t>pair</t>
+  </si>
+  <si>
     <t>noon</t>
   </si>
   <si>
-    <t>pair</t>
-  </si>
-  <si>
     <t>scissors</t>
   </si>
   <si>
@@ -1991,12 +2025,12 @@
     <t>ocean</t>
   </si>
   <si>
+    <t>rat</t>
+  </si>
+  <si>
     <t>October</t>
   </si>
   <si>
-    <t>rat</t>
-  </si>
-  <si>
     <t>octopus</t>
   </si>
   <si>
@@ -2006,24 +2040,24 @@
     <t>onion</t>
   </si>
   <si>
+    <t>vegetable</t>
+  </si>
+  <si>
     <t>opinion</t>
   </si>
   <si>
-    <t>vegetable</t>
+    <t>sister</t>
   </si>
   <si>
     <t>ornaments</t>
   </si>
   <si>
-    <t>sister</t>
+    <t>umbrella</t>
   </si>
   <si>
     <t>other</t>
   </si>
   <si>
-    <t>umbrella</t>
-  </si>
-  <si>
     <t>outside</t>
   </si>
   <si>
@@ -2054,12 +2088,12 @@
     <t>wall</t>
   </si>
   <si>
+    <t>violin</t>
+  </si>
+  <si>
     <t>peas</t>
   </si>
   <si>
-    <t>violin</t>
-  </si>
-  <si>
     <t>present</t>
   </si>
   <si>
@@ -2072,21 +2106,21 @@
     <t>pet</t>
   </si>
   <si>
+    <t>teddy</t>
+  </si>
+  <si>
     <t>photo</t>
   </si>
   <si>
-    <t>teddy</t>
-  </si>
-  <si>
     <t>stairs</t>
   </si>
   <si>
+    <t>violet</t>
+  </si>
+  <si>
     <t>picture</t>
   </si>
   <si>
-    <t>violet</t>
-  </si>
-  <si>
     <t>picture book</t>
   </si>
   <si>
@@ -2096,21 +2130,21 @@
     <t>pineapple</t>
   </si>
   <si>
+    <t>quilt</t>
+  </si>
+  <si>
     <t>pingpong</t>
   </si>
   <si>
-    <t>quilt</t>
-  </si>
-  <si>
     <t>use</t>
   </si>
   <si>
+    <t>sharpener</t>
+  </si>
+  <si>
     <t>pizza</t>
   </si>
   <si>
-    <t>sharpener</t>
-  </si>
-  <si>
     <t>ruler</t>
   </si>
   <si>
@@ -2168,12 +2202,12 @@
     <t>pumpkin</t>
   </si>
   <si>
+    <t>thick</t>
+  </si>
+  <si>
     <t>puppet</t>
   </si>
   <si>
-    <t>thick</t>
-  </si>
-  <si>
     <t>puppy</t>
   </si>
   <si>
@@ -2183,21 +2217,21 @@
     <t>today</t>
   </si>
   <si>
+    <t>shrimp</t>
+  </si>
+  <si>
     <t>radiator</t>
   </si>
   <si>
-    <t>shrimp</t>
-  </si>
-  <si>
     <t>radio</t>
   </si>
   <si>
+    <t>chinese</t>
+  </si>
+  <si>
     <t>rainbow</t>
   </si>
   <si>
-    <t>chinese</t>
-  </si>
-  <si>
     <t>raise</t>
   </si>
   <si>
@@ -2219,12 +2253,12 @@
     <t>roof</t>
   </si>
   <si>
+    <t>straw</t>
+  </si>
+  <si>
     <t>room</t>
   </si>
   <si>
-    <t>straw</t>
-  </si>
-  <si>
     <t>rope</t>
   </si>
   <si>
@@ -2279,12 +2313,12 @@
     <t>stone</t>
   </si>
   <si>
+    <t>woman</t>
+  </si>
+  <si>
     <t>shiver</t>
   </si>
   <si>
-    <t>woman</t>
-  </si>
-  <si>
     <t>weak</t>
   </si>
   <si>
@@ -2324,24 +2358,24 @@
     <t>spacecraft</t>
   </si>
   <si>
+    <t>yell</t>
+  </si>
+  <si>
     <t>spider</t>
   </si>
   <si>
-    <t>yell</t>
-  </si>
-  <si>
     <t>sports</t>
   </si>
   <si>
     <t>watermelon</t>
   </si>
   <si>
+    <t>yawn</t>
+  </si>
+  <si>
     <t>stethoscope</t>
   </si>
   <si>
-    <t>yawn</t>
-  </si>
-  <si>
     <t>tofu</t>
   </si>
   <si>
@@ -2354,21 +2388,21 @@
     <t>string</t>
   </si>
   <si>
+    <t>yogurt</t>
+  </si>
+  <si>
     <t>sugar</t>
   </si>
   <si>
-    <t>yogurt</t>
-  </si>
-  <si>
     <t>sun shine</t>
   </si>
   <si>
+    <t>too much</t>
+  </si>
+  <si>
     <t>Sunday</t>
   </si>
   <si>
-    <t>too much</t>
-  </si>
-  <si>
     <t>task</t>
   </si>
   <si>
@@ -2387,36 +2421,36 @@
     <t>take care of</t>
   </si>
   <si>
+    <t>yummy</t>
+  </si>
+  <si>
     <t>tap</t>
   </si>
   <si>
-    <t>yummy</t>
-  </si>
-  <si>
     <t>tape</t>
   </si>
   <si>
     <t>windowsill</t>
   </si>
   <si>
+    <t>tie</t>
+  </si>
+  <si>
     <t>telephone</t>
   </si>
   <si>
-    <t>tie</t>
-  </si>
-  <si>
     <t>television</t>
   </si>
   <si>
     <t>temperature</t>
   </si>
   <si>
+    <t>view</t>
+  </si>
+  <si>
     <t>thermometer</t>
   </si>
   <si>
-    <t>view</t>
-  </si>
-  <si>
     <t>thief</t>
   </si>
   <si>
@@ -2465,10 +2499,316 @@
     <t>zigzag</t>
   </si>
   <si>
+    <t>zip</t>
+  </si>
+  <si>
     <t>write</t>
   </si>
   <si>
-    <t>zip</t>
+    <t>donner</t>
+  </si>
+  <si>
+    <t>absoudre</t>
+  </si>
+  <si>
+    <t>acheter</t>
+  </si>
+  <si>
+    <t>adorer</t>
+  </si>
+  <si>
+    <t>aimer</t>
+  </si>
+  <si>
+    <t>aller</t>
+  </si>
+  <si>
+    <t>apparaître</t>
+  </si>
+  <si>
+    <t>appeler</t>
+  </si>
+  <si>
+    <t>apporter</t>
+  </si>
+  <si>
+    <t>asseoir</t>
+  </si>
+  <si>
+    <t>avoir</t>
+  </si>
+  <si>
+    <t>battre</t>
+  </si>
+  <si>
+    <t>boire</t>
+  </si>
+  <si>
+    <t>commencer</t>
+  </si>
+  <si>
+    <t>comprendre</t>
+  </si>
+  <si>
+    <t>conclure</t>
+  </si>
+  <si>
+    <t>conduire</t>
+  </si>
+  <si>
+    <t>contenir</t>
+  </si>
+  <si>
+    <t>convenir</t>
+  </si>
+  <si>
+    <t>courir</t>
+  </si>
+  <si>
+    <t>couvrir</t>
+  </si>
+  <si>
+    <t>craindre</t>
+  </si>
+  <si>
+    <t>croire</t>
+  </si>
+  <si>
+    <t>croître</t>
+  </si>
+  <si>
+    <t>cueillir</t>
+  </si>
+  <si>
+    <t>découvrir</t>
+  </si>
+  <si>
+    <t>demander</t>
+  </si>
+  <si>
+    <t>demeurer</t>
+  </si>
+  <si>
+    <t>descendre</t>
+  </si>
+  <si>
+    <t>devenir</t>
+  </si>
+  <si>
+    <t>devoir</t>
+  </si>
+  <si>
+    <t>dire</t>
+  </si>
+  <si>
+    <t>dormir</t>
+  </si>
+  <si>
+    <t>écouter</t>
+  </si>
+  <si>
+    <t>écrire</t>
+  </si>
+  <si>
+    <t>entendre</t>
+  </si>
+  <si>
+    <t>entrer</t>
+  </si>
+  <si>
+    <t>envoyer</t>
+  </si>
+  <si>
+    <t>espérer</t>
+  </si>
+  <si>
+    <t>être</t>
+  </si>
+  <si>
+    <t>faire</t>
+  </si>
+  <si>
+    <t>falloir</t>
+  </si>
+  <si>
+    <t>fermer</t>
+  </si>
+  <si>
+    <t>finir</t>
+  </si>
+  <si>
+    <t>haïr</t>
+  </si>
+  <si>
+    <t>intervenir</t>
+  </si>
+  <si>
+    <t>jeter</t>
+  </si>
+  <si>
+    <t>jouir</t>
+  </si>
+  <si>
+    <t>lire</t>
+  </si>
+  <si>
+    <t>manger</t>
+  </si>
+  <si>
+    <t>mener</t>
+  </si>
+  <si>
+    <t>mettre</t>
+  </si>
+  <si>
+    <t>monter</t>
+  </si>
+  <si>
+    <t>montrer</t>
+  </si>
+  <si>
+    <t>mourir</t>
+  </si>
+  <si>
+    <t>nager</t>
+  </si>
+  <si>
+    <t>naître</t>
+  </si>
+  <si>
+    <t>offrir</t>
+  </si>
+  <si>
+    <t>ouvrir</t>
+  </si>
+  <si>
+    <t>paraître</t>
+  </si>
+  <si>
+    <t>partir</t>
+  </si>
+  <si>
+    <t>parvenir</t>
+  </si>
+  <si>
+    <t>passer</t>
+  </si>
+  <si>
+    <t>perdre</t>
+  </si>
+  <si>
+    <t>pleurer</t>
+  </si>
+  <si>
+    <t>pleuvoir</t>
+  </si>
+  <si>
+    <t>porter</t>
+  </si>
+  <si>
+    <t>pousser</t>
+  </si>
+  <si>
+    <t>pouvoir</t>
+  </si>
+  <si>
+    <t>prendre</t>
+  </si>
+  <si>
+    <t>presser</t>
+  </si>
+  <si>
+    <t>rappeler</t>
+  </si>
+  <si>
+    <t>rapporter</t>
+  </si>
+  <si>
+    <t>recevoir</t>
+  </si>
+  <si>
+    <t>rentrer</t>
+  </si>
+  <si>
+    <t>répondre</t>
+  </si>
+  <si>
+    <t>rester</t>
+  </si>
+  <si>
+    <t>retenir</t>
+  </si>
+  <si>
+    <t>retourner</t>
+  </si>
+  <si>
+    <t>revenir</t>
+  </si>
+  <si>
+    <t>rire</t>
+  </si>
+  <si>
+    <t>rompre</t>
+  </si>
+  <si>
+    <t>savoir</t>
+  </si>
+  <si>
+    <t>sortir</t>
+  </si>
+  <si>
+    <t>souffrir</t>
+  </si>
+  <si>
+    <t>souhaiter</t>
+  </si>
+  <si>
+    <t>subvenir</t>
+  </si>
+  <si>
+    <t>suivre</t>
+  </si>
+  <si>
+    <t>survenir</t>
+  </si>
+  <si>
+    <t>taire</t>
+  </si>
+  <si>
+    <t>tenir</t>
+  </si>
+  <si>
+    <t>tirer</t>
+  </si>
+  <si>
+    <t>tomber</t>
+  </si>
+  <si>
+    <t>tourner</t>
+  </si>
+  <si>
+    <t>vaincre</t>
+  </si>
+  <si>
+    <t>valoir</t>
+  </si>
+  <si>
+    <t>vendre</t>
+  </si>
+  <si>
+    <t>venir</t>
+  </si>
+  <si>
+    <t>vivre</t>
+  </si>
+  <si>
+    <t>voir</t>
+  </si>
+  <si>
+    <t>vouloir</t>
+  </si>
+  <si>
+    <t>voyager</t>
   </si>
 </sst>
 </file>
@@ -2478,11 +2818,12 @@
   <numFmts count="1">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2503,6 +2844,12 @@
       <sz val="24"/>
       <name val="Andale Mono"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -2548,12 +2895,16 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -2574,16 +2925,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B902"/>
+  <dimension ref="A1:D902"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B1" activeCellId="0" pane="topLeft" sqref="B:B"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A261" view="normal" windowProtection="false" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100">
+      <selection activeCell="B295" activeCellId="0" pane="topLeft" sqref="B295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.9"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="49.3622448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="49.3622448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.1632653061224"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.6020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="1">
@@ -3489,53 +3842,56 @@
       <c r="B113" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="C113" s="1" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="114">
       <c r="A114" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="115">
       <c r="A115" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="116">
       <c r="A116" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="117">
       <c r="A117" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="118">
       <c r="A118" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="119">
       <c r="A119" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="120">
@@ -3543,71 +3899,71 @@
         <v>69</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="121">
       <c r="A121" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="122">
       <c r="A122" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="123">
       <c r="A123" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="124">
       <c r="A124" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="125">
       <c r="A125" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="126">
       <c r="A126" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="127">
       <c r="A127" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="128">
       <c r="A128" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="129">
@@ -3615,12 +3971,12 @@
         <v>88</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="130">
       <c r="A130" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>100</v>
@@ -3628,26 +3984,26 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="131">
       <c r="A131" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="132">
       <c r="A132" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="133">
       <c r="A133" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="134">
@@ -3655,20 +4011,20 @@
         <v>131</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="135">
       <c r="A135" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="136">
       <c r="A136" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>91</v>
@@ -3676,10 +4032,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="137">
       <c r="A137" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="138">
@@ -3687,7 +4043,7 @@
         <v>113</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="139">
@@ -3695,28 +4051,28 @@
         <v>208</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="140">
       <c r="A140" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="141">
       <c r="A141" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="142">
       <c r="A142" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>82</v>
@@ -3724,39 +4080,39 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="143">
       <c r="A143" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="144">
       <c r="A144" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="145">
       <c r="A145" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="146">
       <c r="A146" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="147">
       <c r="A147" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>148</v>
@@ -3767,7 +4123,7 @@
         <v>144</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="149">
@@ -3775,7 +4131,7 @@
         <v>33</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="150">
@@ -3788,10 +4144,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="151">
       <c r="A151" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="152">
@@ -3804,23 +4160,23 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="153">
       <c r="A153" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="154">
       <c r="A154" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="155">
       <c r="A155" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>200</v>
@@ -3828,34 +4184,34 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="156">
       <c r="A156" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="157">
       <c r="A157" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="158">
       <c r="A158" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="159">
       <c r="A159" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="160">
@@ -3863,151 +4219,151 @@
         <v>115</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="161">
       <c r="A161" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="162">
       <c r="A162" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="163">
       <c r="A163" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="164">
       <c r="A164" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="165">
       <c r="A165" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="166">
       <c r="A166" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="167">
       <c r="A167" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="168">
       <c r="A168" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="169">
       <c r="A169" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="170">
       <c r="A170" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="171">
       <c r="A171" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="172">
       <c r="A172" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="173">
       <c r="A173" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="174">
       <c r="A174" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="175">
       <c r="A175" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="176">
       <c r="A176" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="177">
       <c r="A177" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="178">
       <c r="A178" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="179">
@@ -4015,28 +4371,28 @@
         <v>119</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="180">
       <c r="A180" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="181">
       <c r="A181" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="182">
       <c r="A182" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>60</v>
@@ -4044,58 +4400,58 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="183">
       <c r="A183" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="184">
       <c r="A184" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="185">
       <c r="A185" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="186">
       <c r="A186" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="187">
       <c r="A187" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="188">
       <c r="A188" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="189">
       <c r="A189" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="190">
@@ -4103,7 +4459,7 @@
         <v>155</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="191">
@@ -4111,20 +4467,20 @@
         <v>178</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="192">
       <c r="A192" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="193">
       <c r="A193" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>70</v>
@@ -4135,12 +4491,12 @@
         <v>157</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="195">
       <c r="A195" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>102</v>
@@ -4148,34 +4504,34 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="196">
       <c r="A196" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="197">
       <c r="A197" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="198">
       <c r="A198" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="199">
       <c r="A199" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="200">
@@ -4183,7 +4539,7 @@
         <v>205</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="201">
@@ -4191,12 +4547,12 @@
         <v>141</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="202">
       <c r="A202" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>80</v>
@@ -4204,26 +4560,26 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="203">
       <c r="A203" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="204">
       <c r="A204" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="205">
       <c r="A205" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="206">
@@ -4236,26 +4592,26 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="207">
       <c r="A207" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="208">
       <c r="A208" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="209">
       <c r="A209" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="210">
@@ -4263,31 +4619,31 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="211">
       <c r="A211" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="212">
       <c r="A212" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="213">
       <c r="A213" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="214">
@@ -4295,47 +4651,47 @@
         <v>175</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="215">
       <c r="A215" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="216">
       <c r="A216" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="217">
       <c r="A217" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="218">
       <c r="A218" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="219">
       <c r="A219" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="220">
@@ -4343,7 +4699,7 @@
         <v>53</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="221">
@@ -4351,23 +4707,23 @@
         <v>102</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="222">
       <c r="A222" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="223">
       <c r="A223" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="224">
@@ -4375,127 +4731,127 @@
         <v>59</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="225">
       <c r="A225" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="226">
       <c r="A226" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>124</v>
+        <v>385</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="227">
       <c r="A227" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>276</v>
+        <v>124</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="228">
       <c r="A228" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>386</v>
+        <v>277</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="229">
       <c r="A229" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="230">
       <c r="A230" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="231">
       <c r="A231" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="232">
       <c r="A232" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="233">
       <c r="A233" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="234">
       <c r="A234" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="235">
       <c r="A235" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="236">
       <c r="A236" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>339</v>
+        <v>384</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="237">
       <c r="A237" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>399</v>
+        <v>340</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="238">
       <c r="A238" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="239">
       <c r="A239" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="240">
@@ -4503,7 +4859,7 @@
         <v>165</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="241">
@@ -4511,23 +4867,26 @@
         <v>73</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="242">
       <c r="A242" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="243">
       <c r="A243" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="244">
@@ -4535,7 +4894,7 @@
         <v>164</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="245">
@@ -4543,23 +4902,23 @@
         <v>137</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>104</v>
+        <v>413</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="246">
       <c r="A246" s="1" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>412</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="247">
       <c r="A247" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="248">
@@ -4567,55 +4926,55 @@
         <v>179</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="249">
       <c r="A249" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="250">
       <c r="A250" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>222</v>
+        <v>421</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="251">
       <c r="A251" s="1" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>420</v>
+        <v>223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="252">
       <c r="A252" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="253">
       <c r="A253" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="254">
       <c r="A254" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>97</v>
+        <v>427</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="255">
@@ -4623,31 +4982,34 @@
         <v>28</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>303</v>
+        <v>97</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="256">
       <c r="A256" s="1" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>68</v>
+        <v>304</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="257">
       <c r="A257" s="1" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>307</v>
+        <v>68</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>430</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="258">
       <c r="A258" s="1" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>428</v>
+        <v>308</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="259">
@@ -4655,7 +5017,7 @@
         <v>24</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="260">
@@ -4663,143 +5025,146 @@
         <v>159</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="261">
       <c r="A261" s="1" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>227</v>
+        <v>435</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="262">
       <c r="A262" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>4</v>
+        <v>228</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="263">
       <c r="A263" s="1" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>344</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="264">
       <c r="A264" s="1" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>434</v>
+        <v>345</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="265">
       <c r="A265" s="1" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="266">
       <c r="A266" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>384</v>
+        <v>441</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="267">
       <c r="A267" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="268">
       <c r="A268" s="1" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="269">
       <c r="A269" s="1" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="270">
       <c r="A270" s="1" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="271">
       <c r="A271" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="272">
       <c r="A272" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>309</v>
+        <v>449</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="273">
       <c r="A273" s="1" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>447</v>
+        <v>310</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="274">
       <c r="A274" s="1" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="275">
       <c r="A275" s="1" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>93</v>
+        <v>454</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>455</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="276">
       <c r="A276" s="1" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>452</v>
+        <v>93</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="277">
       <c r="A277" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="278">
@@ -4807,143 +5172,158 @@
         <v>193</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>441</v>
+        <v>458</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>460</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="279">
       <c r="A279" s="1" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="280">
       <c r="A280" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>393</v>
+        <v>423</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="281">
       <c r="A281" s="1" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>247</v>
+        <v>394</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>463</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="282">
       <c r="A282" s="1" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="283">
       <c r="A283" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>457</v>
+        <v>240</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="284">
       <c r="A284" s="1" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="285">
       <c r="A285" s="1" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="286">
       <c r="A286" s="1" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="287">
       <c r="A287" s="1" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>58</v>
+        <v>470</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>471</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="288">
       <c r="A288" s="1" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>464</v>
+        <v>58</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="289">
       <c r="A289" s="1" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="290">
       <c r="A290" s="1" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>363</v>
+        <v>476</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>477</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="291">
       <c r="A291" s="1" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>469</v>
+        <v>364</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="292">
       <c r="A292" s="1" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="293">
       <c r="A293" s="1" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="294">
       <c r="A294" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="295">
       <c r="A295" s="1" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>274</v>
+        <v>485</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="296">
@@ -4951,103 +5331,103 @@
         <v>211</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="297">
       <c r="A297" s="1" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>477</v>
+        <v>280</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="298">
       <c r="A298" s="1" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="299">
       <c r="A299" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>237</v>
+        <v>489</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="300">
       <c r="A300" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>480</v>
+        <v>238</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="301">
       <c r="A301" s="1" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>432</v>
+        <v>491</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="302">
       <c r="A302" s="1" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>483</v>
+        <v>436</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="303">
       <c r="A303" s="1" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>208</v>
+        <v>494</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="304">
       <c r="A304" s="1" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>486</v>
+        <v>208</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="305">
       <c r="A305" s="1" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="306">
       <c r="A306" s="1" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="307">
       <c r="A307" s="1" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>285</v>
+        <v>501</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="308">
       <c r="A308" s="1" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>493</v>
+        <v>286</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="309">
@@ -5055,39 +5435,39 @@
         <v>23</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>18</v>
+        <v>503</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="310">
       <c r="A310" s="1" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>495</v>
+        <v>18</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="311">
       <c r="A311" s="1" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>20</v>
+        <v>506</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="312">
       <c r="A312" s="1" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="313">
       <c r="A313" s="1" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>220</v>
+        <v>42</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="314">
@@ -5095,175 +5475,175 @@
         <v>65</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>140</v>
+        <v>221</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="315">
       <c r="A315" s="1" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>500</v>
+        <v>140</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="316">
       <c r="A316" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="317">
       <c r="A317" s="1" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>398</v>
+        <v>512</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="318">
       <c r="A318" s="1" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>503</v>
+        <v>400</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="319">
       <c r="A319" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="320">
       <c r="A320" s="1" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="321">
       <c r="A321" s="1" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>49</v>
+        <v>517</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="322">
       <c r="A322" s="1" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>331</v>
+        <v>49</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="323">
       <c r="A323" s="1" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>510</v>
+        <v>332</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="324">
       <c r="A324" s="1" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>51</v>
+        <v>521</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="325">
       <c r="A325" s="1" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>513</v>
+        <v>51</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="326">
       <c r="A326" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="327">
       <c r="A327" s="1" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="328">
       <c r="A328" s="1" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>160</v>
+        <v>526</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="329">
       <c r="A329" s="1" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>292</v>
+        <v>160</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="330">
       <c r="A330" s="1" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>519</v>
+        <v>293</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="331">
       <c r="A331" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="332">
       <c r="A332" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="333">
       <c r="A333" s="1" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="334">
       <c r="A334" s="1" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="335">
       <c r="A335" s="1" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="336">
@@ -5271,23 +5651,23 @@
         <v>90</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>356</v>
+        <v>536</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="337">
       <c r="A337" s="1" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="338">
       <c r="A338" s="1" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>527</v>
+        <v>355</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="339">
@@ -5295,39 +5675,39 @@
         <v>174</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>8</v>
+        <v>537</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="340">
       <c r="A340" s="1" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>529</v>
+        <v>8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="341">
       <c r="A341" s="1" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="342">
       <c r="A342" s="1" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="343">
       <c r="A343" s="1" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="344">
@@ -5335,15 +5715,15 @@
         <v>16</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="345">
       <c r="A345" s="1" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="346">
@@ -5351,95 +5731,95 @@
         <v>55</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>46</v>
+        <v>548</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="347">
       <c r="A347" s="1" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="348">
       <c r="A348" s="1" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>515</v>
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="349">
       <c r="A349" s="1" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>542</v>
+        <v>524</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="350">
       <c r="A350" s="1" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="351">
       <c r="A351" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="352">
       <c r="A352" s="1" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="353">
       <c r="A353" s="1" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>231</v>
+        <v>558</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="354">
       <c r="A354" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>549</v>
+        <v>232</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="355">
       <c r="A355" s="1" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>278</v>
+        <v>560</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="356">
       <c r="A356" s="1" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>552</v>
+        <v>279</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="357">
       <c r="A357" s="1" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="358">
@@ -5447,7 +5827,7 @@
         <v>92</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>134</v>
+        <v>564</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="359">
@@ -5455,23 +5835,23 @@
         <v>91</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>555</v>
+        <v>134</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="360">
       <c r="A360" s="1" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="361">
       <c r="A361" s="1" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>116</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="362">
@@ -5479,63 +5859,63 @@
         <v>148</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>559</v>
+        <v>116</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="363">
       <c r="A363" s="1" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>76</v>
+        <v>570</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="364">
       <c r="A364" s="1" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>562</v>
+        <v>76</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="365">
       <c r="A365" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>508</v>
+        <v>572</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="366">
       <c r="A366" s="1" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>564</v>
+        <v>518</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="367">
       <c r="A367" s="1" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="368">
       <c r="A368" s="1" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="369">
       <c r="A369" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>411</v>
+        <v>578</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="370">
@@ -5543,15 +5923,15 @@
         <v>127</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>569</v>
+        <v>414</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="371">
       <c r="A371" s="1" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="372">
@@ -5559,28 +5939,28 @@
         <v>125</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="373">
       <c r="A373" s="1" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="374">
       <c r="A374" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>132</v>
+        <v>584</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="375">
       <c r="A375" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B375" s="1" t="s">
         <v>132</v>
@@ -5588,18 +5968,18 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="376">
       <c r="A376" s="1" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>576</v>
+        <v>132</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="377">
       <c r="A377" s="1" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="378">
@@ -5607,39 +5987,39 @@
         <v>29</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="379">
       <c r="A379" s="1" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="380">
       <c r="A380" s="1" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>126</v>
+        <v>591</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="381">
       <c r="A381" s="1" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>583</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="382">
       <c r="A382" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="383">
@@ -5647,15 +6027,15 @@
         <v>118</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="384">
       <c r="A384" s="1" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="385">
@@ -5663,103 +6043,103 @@
         <v>120</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="386">
       <c r="A386" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="387">
       <c r="A387" s="1" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>397</v>
+        <v>599</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="388">
       <c r="A388" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>481</v>
+        <v>399</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="389">
       <c r="A389" s="1" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>579</v>
+        <v>490</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="390">
       <c r="A390" s="1" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="391">
       <c r="A391" s="1" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>487</v>
+        <v>601</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="392">
       <c r="A392" s="1" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>243</v>
+        <v>496</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="393">
       <c r="A393" s="1" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>593</v>
+        <v>244</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="394">
       <c r="A394" s="1" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="395">
       <c r="A395" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="396">
       <c r="A396" s="1" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>346</v>
+        <v>605</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="397">
       <c r="A397" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="398">
@@ -5767,87 +6147,87 @@
         <v>50</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>451</v>
+        <v>373</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="399">
       <c r="A399" s="1" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>170</v>
+        <v>456</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="400">
       <c r="A400" s="1" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>598</v>
+        <v>170</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="401">
       <c r="A401" s="1" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="402">
       <c r="A402" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="403">
       <c r="A403" s="1" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>478</v>
+        <v>611</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="404">
       <c r="A404" s="1" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>602</v>
+        <v>487</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="405">
       <c r="A405" s="1" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="406">
       <c r="A406" s="1" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>476</v>
+        <v>615</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="407">
       <c r="A407" s="1" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>607</v>
+        <v>486</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="408">
       <c r="A408" s="1" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="409">
@@ -5855,23 +6235,23 @@
         <v>123</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="410">
       <c r="A410" s="1" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="411">
       <c r="A411" s="1" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="412">
@@ -5879,7 +6259,7 @@
         <v>167</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="413">
@@ -5887,7 +6267,7 @@
         <v>83</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="414">
@@ -5895,79 +6275,79 @@
         <v>52</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="415">
       <c r="A415" s="1" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="416">
       <c r="A416" s="1" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="417">
       <c r="A417" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="418">
       <c r="A418" s="1" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="419">
       <c r="A419" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>158</v>
+        <v>632</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="420">
       <c r="A420" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="421">
       <c r="A421" s="1" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>502</v>
+        <v>182</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="422">
       <c r="A422" s="1" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>624</v>
+        <v>511</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="423">
       <c r="A423" s="1" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="424">
@@ -5975,55 +6355,55 @@
         <v>168</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>259</v>
+        <v>636</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="425">
       <c r="A425" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>543</v>
+        <v>260</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="426">
       <c r="A426" s="1" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>628</v>
+        <v>552</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="427">
       <c r="A427" s="1" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>71</v>
+        <v>638</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="428">
       <c r="A428" s="1" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>629</v>
+        <v>71</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="429">
       <c r="A429" s="1" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>262</v>
+        <v>639</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="430">
       <c r="A430" s="1" t="s">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>631</v>
+        <v>263</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="431">
@@ -6031,47 +6411,47 @@
         <v>148</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="432">
       <c r="A432" s="1" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>154</v>
+        <v>642</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="433">
       <c r="A433" s="1" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>433</v>
+        <v>154</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="434">
       <c r="A434" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>268</v>
+        <v>437</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="435">
       <c r="A435" s="1" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>633</v>
+        <v>269</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="436">
       <c r="A436" s="1" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="437">
@@ -6079,23 +6459,23 @@
         <v>81</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>250</v>
+        <v>645</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="438">
       <c r="A438" s="1" t="s">
-        <v>636</v>
+        <v>646</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>637</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="439">
       <c r="A439" s="1" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="440">
@@ -6103,7 +6483,7 @@
         <v>63</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>32</v>
+        <v>649</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="441">
@@ -6111,15 +6491,15 @@
         <v>210</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>640</v>
+        <v>32</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="442">
       <c r="A442" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="443">
@@ -6127,7 +6507,7 @@
         <v>94</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="444">
@@ -6135,47 +6515,47 @@
         <v>98</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="445">
       <c r="A445" s="1" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>553</v>
+        <v>653</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="446">
       <c r="A446" s="1" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>645</v>
+        <v>562</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="447">
       <c r="A447" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>491</v>
+        <v>655</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="448">
       <c r="A448" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>646</v>
+        <v>500</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="449">
       <c r="A449" s="1" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>456</v>
+        <v>657</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="450">
@@ -6183,7 +6563,7 @@
         <v>151</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>10</v>
+        <v>464</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="451">
@@ -6191,15 +6571,15 @@
         <v>153</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>253</v>
+        <v>10</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="452">
       <c r="A452" s="1" t="s">
-        <v>648</v>
+        <v>658</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>186</v>
+        <v>254</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="453">
@@ -6207,71 +6587,71 @@
         <v>147</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>647</v>
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="454">
       <c r="A454" s="1" t="s">
-        <v>649</v>
+        <v>659</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="455">
       <c r="A455" s="1" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>144</v>
+        <v>661</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="456">
       <c r="A456" s="1" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>653</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="457">
       <c r="A457" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>188</v>
+        <v>663</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="458">
       <c r="A458" s="1" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="459">
       <c r="A459" s="1" t="s">
-        <v>654</v>
+        <v>664</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>655</v>
+        <v>189</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="460">
       <c r="A460" s="1" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>423</v>
+        <v>665</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="461">
       <c r="A461" s="1" t="s">
-        <v>656</v>
+        <v>666</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>657</v>
+        <v>425</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="462">
@@ -6279,15 +6659,15 @@
         <v>26</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>658</v>
+        <v>667</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="463">
       <c r="A463" s="1" t="s">
-        <v>659</v>
+        <v>668</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="464">
@@ -6295,15 +6675,15 @@
         <v>209</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>206</v>
+        <v>670</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="465">
       <c r="A465" s="1" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>565</v>
+        <v>206</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="466">
@@ -6311,31 +6691,31 @@
         <v>85</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>0</v>
+        <v>574</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="467">
       <c r="A467" s="1" t="s">
-        <v>661</v>
+        <v>671</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>467</v>
+        <v>0</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="468">
       <c r="A468" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>662</v>
+        <v>475</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="469">
       <c r="A469" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>225</v>
+        <v>672</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="470">
@@ -6343,15 +6723,15 @@
         <v>33</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>663</v>
+        <v>226</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="471">
       <c r="A471" s="1" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>264</v>
+        <v>674</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="472">
@@ -6359,23 +6739,23 @@
         <v>31</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>665</v>
+        <v>265</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="473">
       <c r="A473" s="1" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="474">
       <c r="A474" s="1" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="475">
@@ -6383,95 +6763,95 @@
         <v>102</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>563</v>
+        <v>679</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="476">
       <c r="A476" s="1" t="s">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>671</v>
+        <v>573</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="477">
       <c r="A477" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>651</v>
+        <v>681</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="478">
       <c r="A478" s="1" t="s">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>290</v>
+        <v>660</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="479">
       <c r="A479" s="1" t="s">
-        <v>673</v>
+        <v>683</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>546</v>
+        <v>291</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="480">
       <c r="A480" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>674</v>
+        <v>555</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="481">
       <c r="A481" s="1" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>649</v>
+        <v>684</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="482">
       <c r="A482" s="1" t="s">
-        <v>675</v>
+        <v>685</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>507</v>
+        <v>659</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="483">
       <c r="A483" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>439</v>
+        <v>516</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="484">
       <c r="A484" s="1" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>528</v>
+        <v>442</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="485">
       <c r="A485" s="1" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>353</v>
+        <v>538</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="486">
       <c r="A486" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="487">
@@ -6479,31 +6859,31 @@
         <v>96</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>229</v>
+        <v>359</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="488">
       <c r="A488" s="1" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>679</v>
+        <v>230</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="489">
       <c r="A489" s="1" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>368</v>
+        <v>690</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="490">
       <c r="A490" s="1" t="s">
-        <v>681</v>
+        <v>691</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>682</v>
+        <v>369</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="491">
@@ -6511,7 +6891,7 @@
         <v>117</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="492">
@@ -6519,151 +6899,151 @@
         <v>171</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>684</v>
+        <v>693</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="493">
       <c r="A493" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="494">
       <c r="A494" s="1" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>110</v>
+        <v>696</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="495">
       <c r="A495" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>623</v>
+        <v>110</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="496">
       <c r="A496" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>62</v>
+        <v>633</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="497">
       <c r="A497" s="1" t="s">
-        <v>687</v>
+        <v>697</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>688</v>
+        <v>62</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="498">
       <c r="A498" s="1" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>690</v>
+        <v>699</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="499">
       <c r="A499" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>377</v>
+        <v>700</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="500">
       <c r="A500" s="1" t="s">
-        <v>691</v>
+        <v>701</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>605</v>
+        <v>378</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="501">
       <c r="A501" s="1" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>692</v>
+        <v>614</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="502">
       <c r="A502" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="503">
       <c r="A503" s="1" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>314</v>
+        <v>704</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="504">
       <c r="A504" s="1" t="s">
-        <v>695</v>
+        <v>705</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>696</v>
+        <v>315</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="505">
       <c r="A505" s="1" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>73</v>
+        <v>707</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="506">
       <c r="A506" s="1" t="s">
-        <v>698</v>
+        <v>708</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>699</v>
+        <v>73</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="507">
       <c r="A507" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>700</v>
+        <v>709</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="508">
       <c r="A508" s="1" t="s">
-        <v>682</v>
+        <v>692</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>324</v>
+        <v>710</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="509">
       <c r="A509" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>701</v>
+        <v>325</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="510">
       <c r="A510" s="1" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="511">
@@ -6671,47 +7051,47 @@
         <v>39</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="512">
       <c r="A512" s="1" t="s">
-        <v>660</v>
+        <v>670</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="513">
       <c r="A513" s="1" t="s">
-        <v>646</v>
+        <v>657</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>603</v>
+        <v>714</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="514">
       <c r="A514" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>705</v>
+        <v>612</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="515">
       <c r="A515" s="1" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="516">
       <c r="A516" s="1" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>128</v>
+        <v>716</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="517">
@@ -6719,15 +7099,15 @@
         <v>72</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>379</v>
+        <v>128</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="518">
       <c r="A518" s="1" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>707</v>
+        <v>380</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="519">
@@ -6735,39 +7115,39 @@
         <v>54</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="520">
       <c r="A520" s="1" t="s">
-        <v>702</v>
+        <v>712</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="521">
       <c r="A521" s="1" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>112</v>
+        <v>719</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="522">
       <c r="A522" s="1" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>681</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="523">
       <c r="A523" s="1" t="s">
-        <v>710</v>
+        <v>720</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>711</v>
+        <v>691</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="524">
@@ -6775,39 +7155,39 @@
         <v>173</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>712</v>
+        <v>721</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="525">
       <c r="A525" s="1" t="s">
-        <v>699</v>
+        <v>709</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>597</v>
+        <v>722</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="526">
       <c r="A526" s="1" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>192</v>
+        <v>607</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="527">
       <c r="A527" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="528">
       <c r="A528" s="1" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>713</v>
+        <v>198</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="529">
@@ -6815,71 +7195,71 @@
         <v>174</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="530">
       <c r="A530" s="1" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>715</v>
+        <v>724</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="531">
       <c r="A531" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>106</v>
+        <v>725</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="532">
       <c r="A532" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>670</v>
+        <v>106</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="533">
       <c r="A533" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>716</v>
+        <v>680</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="534">
       <c r="A534" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>717</v>
+        <v>726</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="535">
       <c r="A535" s="1" t="s">
-        <v>718</v>
+        <v>727</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>719</v>
+        <v>728</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="536">
       <c r="A536" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>245</v>
+        <v>729</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="537">
       <c r="A537" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>482</v>
+        <v>246</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="538">
@@ -6887,23 +7267,23 @@
         <v>111</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>450</v>
+        <v>492</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="539">
       <c r="A539" s="1" t="s">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>694</v>
+        <v>453</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="540">
       <c r="A540" s="1" t="s">
-        <v>721</v>
+        <v>731</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>257</v>
+        <v>703</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="541">
@@ -6911,71 +7291,71 @@
         <v>13</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>722</v>
+        <v>258</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="542">
       <c r="A542" s="1" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>724</v>
+        <v>733</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="543">
       <c r="A543" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>672</v>
+        <v>734</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="544">
       <c r="A544" s="1" t="s">
-        <v>665</v>
+        <v>676</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>725</v>
+        <v>682</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="545">
       <c r="A545" s="1" t="s">
-        <v>726</v>
+        <v>735</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>498</v>
+        <v>736</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="546">
       <c r="A546" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>727</v>
+        <v>508</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="547">
       <c r="A547" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>659</v>
+        <v>737</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="548">
       <c r="A548" s="1" t="s">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>326</v>
+        <v>668</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="549">
       <c r="A549" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>728</v>
+        <v>327</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="550">
@@ -6983,7 +7363,7 @@
         <v>95</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>472</v>
+        <v>738</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="551">
@@ -6991,15 +7371,15 @@
         <v>129</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>320</v>
+        <v>481</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="552">
       <c r="A552" s="1" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>730</v>
+        <v>321</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="553">
@@ -7007,103 +7387,103 @@
         <v>163</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>190</v>
+        <v>740</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="554">
       <c r="A554" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>731</v>
+        <v>190</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="555">
       <c r="A555" s="1" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>233</v>
+        <v>741</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="556">
       <c r="A556" s="1" t="s">
-        <v>732</v>
+        <v>742</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>178</v>
+        <v>234</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="557">
       <c r="A557" s="1" t="s">
-        <v>707</v>
+        <v>717</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>676</v>
+        <v>178</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="558">
       <c r="A558" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>550</v>
+        <v>686</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="559">
       <c r="A559" s="1" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="560">
       <c r="A560" s="1" t="s">
-        <v>733</v>
+        <v>743</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>86</v>
+        <v>579</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="561">
       <c r="A561" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>733</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="562">
       <c r="A562" s="1" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>734</v>
+        <v>743</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="563">
       <c r="A563" s="1" t="s">
-        <v>735</v>
+        <v>744</v>
       </c>
       <c r="B563" s="1" t="s">
-        <v>736</v>
+        <v>745</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="564">
       <c r="A564" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>691</v>
+        <v>746</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="565">
       <c r="A565" s="1" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>164</v>
+        <v>701</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="566">
@@ -7111,127 +7491,127 @@
         <v>121</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>737</v>
+        <v>164</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="567">
       <c r="A567" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B567" s="1" t="s">
-        <v>698</v>
+        <v>747</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="568">
       <c r="A568" s="1" t="s">
-        <v>738</v>
+        <v>748</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>539</v>
+        <v>708</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="569">
       <c r="A569" s="1" t="s">
-        <v>683</v>
+        <v>693</v>
       </c>
       <c r="B569" s="1" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="570">
       <c r="A570" s="1" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>142</v>
+        <v>546</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="571">
       <c r="A571" s="1" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="B571" s="1" t="s">
-        <v>575</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="572">
       <c r="A572" s="1" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>739</v>
+        <v>585</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="573">
       <c r="A573" s="1" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B573" s="1" t="s">
-        <v>592</v>
+        <v>749</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="574">
       <c r="A574" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>740</v>
+        <v>602</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="575">
       <c r="A575" s="1" t="s">
-        <v>728</v>
+        <v>738</v>
       </c>
       <c r="B575" s="1" t="s">
-        <v>741</v>
+        <v>750</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="576">
       <c r="A576" s="1" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>582</v>
+        <v>751</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="577">
       <c r="A577" s="1" t="s">
-        <v>742</v>
+        <v>752</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>743</v>
+        <v>592</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="578">
       <c r="A578" s="1" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>431</v>
+        <v>753</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="579">
       <c r="A579" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B579" s="1" t="s">
-        <v>652</v>
+        <v>434</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="580">
       <c r="A580" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>744</v>
+        <v>662</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="581">
       <c r="A581" s="1" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B581" s="1" t="s">
-        <v>745</v>
+        <v>754</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="582">
@@ -7239,103 +7619,103 @@
         <v>110</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="583">
       <c r="A583" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B583" s="1" t="s">
-        <v>548</v>
+        <v>756</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="584">
       <c r="A584" s="1" t="s">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>738</v>
+        <v>557</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="585">
       <c r="A585" s="1" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="B585" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="586">
       <c r="A586" s="1" t="s">
-        <v>690</v>
+        <v>700</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>458</v>
+        <v>757</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="587">
       <c r="A587" s="1" t="s">
-        <v>748</v>
+        <v>758</v>
       </c>
       <c r="B587" s="1" t="s">
-        <v>567</v>
+        <v>465</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="588">
       <c r="A588" s="1" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
       <c r="B588" s="1" t="s">
-        <v>201</v>
+        <v>576</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="589">
       <c r="A589" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B589" s="1" t="s">
-        <v>492</v>
+        <v>201</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="590">
       <c r="A590" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>720</v>
+        <v>502</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="591">
       <c r="A591" s="1" t="s">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="B591" s="1" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="592">
       <c r="A592" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>697</v>
+        <v>761</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="593">
       <c r="A593" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B593" s="1" t="s">
-        <v>40</v>
+        <v>706</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="594">
       <c r="A594" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>752</v>
+        <v>40</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="595">
@@ -7343,79 +7723,79 @@
         <v>75</v>
       </c>
       <c r="B595" s="1" t="s">
-        <v>406</v>
+        <v>762</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="596">
       <c r="A596" s="1" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="597">
       <c r="A597" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B597" s="1" t="s">
-        <v>525</v>
+        <v>410</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="598">
       <c r="A598" s="1" t="s">
-        <v>753</v>
+        <v>763</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>754</v>
+        <v>534</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="599">
       <c r="A599" s="1" t="s">
-        <v>755</v>
+        <v>764</v>
       </c>
       <c r="B599" s="1" t="s">
-        <v>348</v>
+        <v>765</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="600">
       <c r="A600" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>64</v>
+        <v>349</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="601">
       <c r="A601" s="1" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="B601" s="1" t="s">
-        <v>373</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="602">
       <c r="A602" s="1" t="s">
-        <v>756</v>
+        <v>766</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>470</v>
+        <v>374</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="603">
       <c r="A603" s="1" t="s">
-        <v>757</v>
+        <v>767</v>
       </c>
       <c r="B603" s="1" t="s">
-        <v>136</v>
+        <v>479</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="604">
       <c r="A604" s="1" t="s">
-        <v>706</v>
+        <v>716</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="605">
@@ -7423,39 +7803,39 @@
         <v>91</v>
       </c>
       <c r="B605" s="1" t="s">
-        <v>758</v>
+        <v>138</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="606">
       <c r="A606" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B606" s="1" t="s">
-        <v>723</v>
+        <v>768</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="607">
       <c r="A607" s="1" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="B607" s="1" t="s">
-        <v>78</v>
+        <v>732</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="608">
       <c r="A608" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>759</v>
+        <v>78</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="609">
       <c r="A609" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B609" s="1" t="s">
-        <v>760</v>
+        <v>769</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="610">
@@ -7463,7 +7843,7 @@
         <v>132</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>297</v>
+        <v>770</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="611">
@@ -7471,7 +7851,7 @@
         <v>99</v>
       </c>
       <c r="B611" s="1" t="s">
-        <v>596</v>
+        <v>298</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="612">
@@ -7479,15 +7859,15 @@
         <v>104</v>
       </c>
       <c r="B612" s="1" t="s">
-        <v>666</v>
+        <v>606</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="613">
       <c r="A613" s="1" t="s">
-        <v>761</v>
+        <v>771</v>
       </c>
       <c r="B613" s="1" t="s">
-        <v>460</v>
+        <v>675</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="614">
@@ -7495,7 +7875,7 @@
         <v>21</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>84</v>
+        <v>467</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="615">
@@ -7503,15 +7883,15 @@
         <v>204</v>
       </c>
       <c r="B615" s="1" t="s">
-        <v>627</v>
+        <v>84</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="616">
       <c r="A616" s="1" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="B616" s="1" t="s">
-        <v>560</v>
+        <v>637</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="617">
@@ -7519,7 +7899,7 @@
         <v>103</v>
       </c>
       <c r="B617" s="1" t="s">
-        <v>214</v>
+        <v>569</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="618">
@@ -7527,39 +7907,39 @@
         <v>94</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>120</v>
+        <v>215</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="619">
       <c r="A619" s="1" t="s">
-        <v>684</v>
+        <v>694</v>
       </c>
       <c r="B619" s="1" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="620">
       <c r="A620" s="1" t="s">
-        <v>762</v>
+        <v>772</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>499</v>
+        <v>146</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="621">
       <c r="A621" s="1" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B621" s="1" t="s">
-        <v>391</v>
+        <v>509</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="622">
       <c r="A622" s="1" t="s">
-        <v>763</v>
+        <v>773</v>
       </c>
       <c r="B622" s="1" t="s">
-        <v>764</v>
+        <v>392</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="623">
@@ -7567,39 +7947,39 @@
         <v>181</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>765</v>
+        <v>774</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="624">
       <c r="A624" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B624" s="1" t="s">
-        <v>766</v>
+        <v>775</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="625">
       <c r="A625" s="1" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="B625" s="1" t="s">
-        <v>494</v>
+        <v>776</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="626">
       <c r="A626" s="1" t="s">
-        <v>719</v>
+        <v>729</v>
       </c>
       <c r="B626" s="1" t="s">
-        <v>261</v>
+        <v>504</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="627">
       <c r="A627" s="1" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="B627" s="1" t="s">
-        <v>558</v>
+        <v>262</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="628">
@@ -7607,15 +7987,15 @@
         <v>67</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>485</v>
+        <v>567</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="629">
       <c r="A629" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B629" s="1" t="s">
-        <v>316</v>
+        <v>495</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="630">
@@ -7623,63 +8003,63 @@
         <v>185</v>
       </c>
       <c r="B630" s="1" t="s">
-        <v>654</v>
+        <v>317</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="631">
       <c r="A631" s="1" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B631" s="1" t="s">
-        <v>648</v>
+        <v>664</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="632">
       <c r="A632" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B632" s="1" t="s">
-        <v>767</v>
+        <v>658</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="633">
       <c r="A633" s="1" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
       <c r="B633" s="1" t="s">
-        <v>634</v>
+        <v>777</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="634">
       <c r="A634" s="1" t="s">
-        <v>655</v>
+        <v>665</v>
       </c>
       <c r="B634" s="1" t="s">
-        <v>761</v>
+        <v>643</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="635">
       <c r="A635" s="1" t="s">
-        <v>635</v>
+        <v>645</v>
       </c>
       <c r="B635" s="1" t="s">
-        <v>630</v>
+        <v>771</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="636">
       <c r="A636" s="1" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="B636" s="1" t="s">
-        <v>341</v>
+        <v>640</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="637">
       <c r="A637" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B637" s="1" t="s">
-        <v>176</v>
+        <v>342</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="638">
@@ -7687,63 +8067,63 @@
         <v>101</v>
       </c>
       <c r="B638" s="1" t="s">
-        <v>768</v>
+        <v>176</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="639">
       <c r="A639" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="B639" s="1" t="s">
-        <v>266</v>
+        <v>778</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="640">
       <c r="A640" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B640" s="1" t="s">
-        <v>769</v>
+        <v>267</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="641">
       <c r="A641" s="1" t="s">
-        <v>770</v>
+        <v>779</v>
       </c>
       <c r="B641" s="1" t="s">
-        <v>771</v>
+        <v>780</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="642">
       <c r="A642" s="1" t="s">
-        <v>709</v>
+        <v>719</v>
       </c>
       <c r="B642" s="1" t="s">
-        <v>606</v>
+        <v>781</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="643">
       <c r="A643" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B643" s="1" t="s">
-        <v>530</v>
+        <v>616</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="644">
       <c r="A644" s="1" t="s">
-        <v>754</v>
+        <v>765</v>
       </c>
       <c r="B644" s="1" t="s">
-        <v>396</v>
+        <v>539</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="645">
       <c r="A645" s="1" t="s">
-        <v>722</v>
+        <v>733</v>
       </c>
       <c r="B645" s="1" t="s">
-        <v>687</v>
+        <v>398</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="646">
@@ -7751,31 +8131,31 @@
         <v>17</v>
       </c>
       <c r="B646" s="1" t="s">
-        <v>335</v>
+        <v>697</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="647">
       <c r="A647" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B647" s="1" t="s">
-        <v>484</v>
+        <v>336</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="648">
       <c r="A648" s="1" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="B648" s="1" t="s">
-        <v>556</v>
+        <v>493</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="649">
       <c r="A649" s="1" t="s">
-        <v>772</v>
+        <v>782</v>
       </c>
       <c r="B649" s="1" t="s">
-        <v>505</v>
+        <v>565</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="650">
@@ -7783,39 +8163,39 @@
         <v>41</v>
       </c>
       <c r="B650" s="1" t="s">
-        <v>130</v>
+        <v>514</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="651">
       <c r="A651" s="1" t="s">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="B651" s="1" t="s">
-        <v>773</v>
+        <v>130</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="652">
       <c r="A652" s="1" t="s">
-        <v>774</v>
+        <v>783</v>
       </c>
       <c r="B652" s="1" t="s">
-        <v>446</v>
+        <v>784</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="653">
       <c r="A653" s="1" t="s">
-        <v>737</v>
+        <v>747</v>
       </c>
       <c r="B653" s="1" t="s">
-        <v>732</v>
+        <v>450</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="654">
       <c r="A654" s="1" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="B654" s="1" t="s">
-        <v>150</v>
+        <v>742</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="655">
@@ -7823,63 +8203,63 @@
         <v>139</v>
       </c>
       <c r="B655" s="1" t="s">
-        <v>753</v>
+        <v>150</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="656">
       <c r="A656" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B656" s="1" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="657">
       <c r="A657" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B657" s="1" t="s">
-        <v>748</v>
+        <v>543</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="658">
       <c r="A658" s="1" t="s">
-        <v>775</v>
+        <v>785</v>
       </c>
       <c r="B658" s="1" t="s">
-        <v>735</v>
+        <v>758</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="659">
       <c r="A659" s="1" t="s">
-        <v>679</v>
+        <v>690</v>
       </c>
       <c r="B659" s="1" t="s">
-        <v>776</v>
+        <v>744</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="660">
       <c r="A660" s="1" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="B660" s="1" t="s">
-        <v>777</v>
+        <v>786</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="661">
       <c r="A661" s="1" t="s">
-        <v>776</v>
+        <v>786</v>
       </c>
       <c r="B661" s="1" t="s">
-        <v>763</v>
+        <v>787</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="662">
       <c r="A662" s="1" t="s">
-        <v>692</v>
+        <v>702</v>
       </c>
       <c r="B662" s="1" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="663">
@@ -7887,23 +8267,23 @@
         <v>87</v>
       </c>
       <c r="B663" s="1" t="s">
-        <v>675</v>
+        <v>788</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="664">
       <c r="A664" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B664" s="1" t="s">
-        <v>757</v>
+        <v>685</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="665">
       <c r="A665" s="1" t="s">
-        <v>662</v>
+        <v>672</v>
       </c>
       <c r="B665" s="1" t="s">
-        <v>742</v>
+        <v>767</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="666">
@@ -7911,7 +8291,7 @@
         <v>205</v>
       </c>
       <c r="B666" s="1" t="s">
-        <v>114</v>
+        <v>752</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="667">
@@ -7919,79 +8299,79 @@
         <v>191</v>
       </c>
       <c r="B667" s="1" t="s">
-        <v>779</v>
+        <v>114</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="668">
       <c r="A668" s="1" t="s">
-        <v>780</v>
+        <v>789</v>
       </c>
       <c r="B668" s="1" t="s">
-        <v>611</v>
+        <v>790</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="669">
       <c r="A669" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B669" s="1" t="s">
-        <v>781</v>
+        <v>620</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="670">
       <c r="A670" s="1" t="s">
-        <v>779</v>
+        <v>790</v>
       </c>
       <c r="B670" s="1" t="s">
-        <v>782</v>
+        <v>791</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="671">
       <c r="A671" s="1" t="s">
-        <v>783</v>
+        <v>792</v>
       </c>
       <c r="B671" s="1" t="s">
-        <v>613</v>
+        <v>793</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="672">
       <c r="A672" s="1" t="s">
-        <v>784</v>
+        <v>794</v>
       </c>
       <c r="B672" s="1" t="s">
-        <v>785</v>
+        <v>622</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="673">
       <c r="A673" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B673" s="1" t="s">
-        <v>540</v>
+        <v>795</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="674">
       <c r="A674" s="1" t="s">
-        <v>765</v>
+        <v>775</v>
       </c>
       <c r="B674" s="1" t="s">
-        <v>573</v>
+        <v>550</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="675">
       <c r="A675" s="1" t="s">
-        <v>786</v>
+        <v>796</v>
       </c>
       <c r="B675" s="1" t="s">
-        <v>787</v>
+        <v>582</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="676">
       <c r="A676" s="1" t="s">
-        <v>771</v>
+        <v>781</v>
       </c>
       <c r="B676" s="1" t="s">
-        <v>95</v>
+        <v>797</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="677">
@@ -7999,15 +8379,15 @@
         <v>77</v>
       </c>
       <c r="B677" s="1" t="s">
-        <v>270</v>
+        <v>95</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="678">
       <c r="A678" s="1" t="s">
-        <v>637</v>
+        <v>648</v>
       </c>
       <c r="B678" s="1" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="679">
@@ -8015,143 +8395,143 @@
         <v>15</v>
       </c>
       <c r="B679" s="1" t="s">
-        <v>625</v>
+        <v>236</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="680">
       <c r="A680" s="1" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="B680" s="1" t="s">
-        <v>521</v>
+        <v>634</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="681">
       <c r="A681" s="1" t="s">
-        <v>730</v>
+        <v>740</v>
       </c>
       <c r="B681" s="1" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="682">
       <c r="A682" s="1" t="s">
-        <v>650</v>
+        <v>661</v>
       </c>
       <c r="B682" s="1" t="s">
-        <v>89</v>
+        <v>528</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="683">
       <c r="A683" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B683" s="1" t="s">
-        <v>370</v>
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="684">
       <c r="A684" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B684" s="1" t="s">
-        <v>581</v>
+        <v>371</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="685">
       <c r="A685" s="1" t="s">
-        <v>788</v>
+        <v>798</v>
       </c>
       <c r="B685" s="1" t="s">
-        <v>789</v>
+        <v>590</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="686">
       <c r="A686" s="1" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
       <c r="B686" s="1" t="s">
-        <v>443</v>
+        <v>799</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="687">
       <c r="A687" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B687" s="1" t="s">
-        <v>369</v>
+        <v>446</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="688">
       <c r="A688" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B688" s="1" t="s">
-        <v>790</v>
+        <v>370</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="689">
       <c r="A689" s="1" t="s">
-        <v>791</v>
+        <v>800</v>
       </c>
       <c r="B689" s="1" t="s">
-        <v>792</v>
+        <v>801</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="690">
       <c r="A690" s="1" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>784</v>
+        <v>802</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="691">
       <c r="A691" s="1" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="B691" s="1" t="s">
-        <v>419</v>
+        <v>794</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="692">
       <c r="A692" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B692" s="1" t="s">
-        <v>644</v>
+        <v>422</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="693">
       <c r="A693" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B693" s="1" t="s">
-        <v>180</v>
+        <v>654</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="694">
       <c r="A694" s="1" t="s">
-        <v>708</v>
+        <v>718</v>
       </c>
       <c r="B694" s="1" t="s">
-        <v>281</v>
+        <v>180</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="695">
       <c r="A695" s="1" t="s">
-        <v>793</v>
+        <v>803</v>
       </c>
       <c r="B695" s="1" t="s">
-        <v>686</v>
+        <v>282</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="696">
       <c r="A696" s="1" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="B696" s="1" t="s">
-        <v>435</v>
+        <v>695</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="697">
@@ -8159,71 +8539,71 @@
         <v>199</v>
       </c>
       <c r="B697" s="1" t="s">
-        <v>794</v>
+        <v>438</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="698">
       <c r="A698" s="1" t="s">
-        <v>795</v>
+        <v>804</v>
       </c>
       <c r="B698" s="1" t="s">
-        <v>796</v>
+        <v>805</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="699">
       <c r="A699" s="1" t="s">
-        <v>711</v>
+        <v>721</v>
       </c>
       <c r="B699" s="1" t="s">
-        <v>797</v>
+        <v>806</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="700">
       <c r="A700" s="1" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
       <c r="B700" s="1" t="s">
-        <v>455</v>
+        <v>807</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="701">
       <c r="A701" s="1" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="B701" s="1" t="s">
-        <v>172</v>
+        <v>462</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="702">
       <c r="A702" s="1" t="s">
-        <v>713</v>
+        <v>723</v>
       </c>
       <c r="B702" s="1" t="s">
-        <v>749</v>
+        <v>172</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="703">
       <c r="A703" s="1" t="s">
-        <v>715</v>
+        <v>725</v>
       </c>
       <c r="B703" s="1" t="s">
-        <v>47</v>
+        <v>759</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="704">
       <c r="A704" s="1" t="s">
-        <v>714</v>
+        <v>724</v>
       </c>
       <c r="B704" s="1" t="s">
-        <v>416</v>
+        <v>47</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="705">
       <c r="A705" s="1" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="B705" s="1" t="s">
-        <v>30</v>
+        <v>418</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="706">
@@ -8231,7 +8611,7 @@
         <v>9</v>
       </c>
       <c r="B706" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="707">
@@ -8239,23 +8619,23 @@
         <v>11</v>
       </c>
       <c r="B707" s="1" t="s">
-        <v>798</v>
+        <v>22</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="708">
       <c r="A708" s="1" t="s">
-        <v>799</v>
+        <v>808</v>
       </c>
       <c r="B708" s="1" t="s">
-        <v>656</v>
+        <v>809</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="709">
       <c r="A709" s="1" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="B709" s="1" t="s">
-        <v>38</v>
+        <v>666</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="710">
@@ -8263,7 +8643,7 @@
         <v>3</v>
       </c>
       <c r="B710" s="1" t="s">
-        <v>718</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="711">
@@ -8271,95 +8651,95 @@
         <v>5</v>
       </c>
       <c r="B711" s="1" t="s">
-        <v>800</v>
+        <v>727</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="712">
       <c r="A712" s="1" t="s">
-        <v>663</v>
+        <v>674</v>
       </c>
       <c r="B712" s="1" t="s">
-        <v>385</v>
+        <v>810</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="713">
       <c r="A713" s="1" t="s">
-        <v>703</v>
+        <v>713</v>
       </c>
       <c r="B713" s="1" t="s">
-        <v>589</v>
+        <v>387</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="714">
       <c r="A714" s="1" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="B714" s="1" t="s">
-        <v>24</v>
+        <v>598</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="715">
       <c r="A715" s="1" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="B715" s="1" t="s">
-        <v>463</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="716">
       <c r="A716" s="1" t="s">
-        <v>798</v>
+        <v>809</v>
       </c>
       <c r="B716" s="1" t="s">
-        <v>497</v>
+        <v>472</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="717">
       <c r="A717" s="1" t="s">
-        <v>773</v>
+        <v>784</v>
       </c>
       <c r="B717" s="1" t="s">
-        <v>801</v>
+        <v>507</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="718">
       <c r="A718" s="1" t="s">
-        <v>797</v>
+        <v>807</v>
       </c>
       <c r="B718" s="1" t="s">
-        <v>802</v>
+        <v>811</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="719">
       <c r="A719" s="1" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="B719" s="1" t="s">
-        <v>489</v>
+        <v>812</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="720">
       <c r="A720" s="1" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="B720" s="1" t="s">
-        <v>795</v>
+        <v>498</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="721">
       <c r="A721" s="1" t="s">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="B721" s="1" t="s">
-        <v>301</v>
+        <v>804</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="722">
       <c r="A722" s="1" t="s">
-        <v>759</v>
+        <v>769</v>
       </c>
       <c r="B722" s="1" t="s">
-        <v>118</v>
+        <v>302</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="723">
@@ -8367,111 +8747,111 @@
         <v>158</v>
       </c>
       <c r="B723" s="1" t="s">
-        <v>6</v>
+        <v>118</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="724">
       <c r="A724" s="1" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B724" s="1" t="s">
-        <v>721</v>
+        <v>6</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="725">
       <c r="A725" s="1" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B725" s="1" t="s">
-        <v>775</v>
+        <v>731</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="726">
       <c r="A726" s="1" t="s">
-        <v>803</v>
+        <v>813</v>
       </c>
       <c r="B726" s="1" t="s">
-        <v>636</v>
+        <v>785</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="727">
       <c r="A727" s="1" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="B727" s="1" t="s">
-        <v>762</v>
+        <v>646</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="728">
       <c r="A728" s="1" t="s">
-        <v>704</v>
+        <v>714</v>
       </c>
       <c r="B728" s="1" t="s">
-        <v>108</v>
+        <v>772</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="729">
       <c r="A729" s="1" t="s">
-        <v>705</v>
+        <v>715</v>
       </c>
       <c r="B729" s="1" t="s">
-        <v>786</v>
+        <v>108</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="730">
       <c r="A730" s="1" t="s">
-        <v>800</v>
+        <v>810</v>
       </c>
       <c r="B730" s="1" t="s">
-        <v>783</v>
+        <v>796</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="731">
       <c r="A731" s="1" t="s">
-        <v>804</v>
+        <v>814</v>
       </c>
       <c r="B731" s="1" t="s">
-        <v>426</v>
+        <v>792</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="732">
       <c r="A732" s="1" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B732" s="1" t="s">
-        <v>152</v>
+        <v>429</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="733">
       <c r="A733" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B733" s="1" t="s">
-        <v>294</v>
+        <v>152</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="734">
       <c r="A734" s="1" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="B734" s="1" t="s">
-        <v>677</v>
+        <v>295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="735">
       <c r="A735" s="1" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
       <c r="B735" s="1" t="s">
-        <v>804</v>
+        <v>687</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="736">
       <c r="A736" s="1" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="B736" s="1" t="s">
-        <v>413</v>
+        <v>814</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="737">
@@ -8479,15 +8859,15 @@
         <v>44</v>
       </c>
       <c r="B737" s="1" t="s">
-        <v>541</v>
+        <v>415</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="738">
       <c r="A738" s="1" t="s">
-        <v>805</v>
+        <v>815</v>
       </c>
       <c r="B738" s="1" t="s">
-        <v>402</v>
+        <v>551</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="739">
@@ -8495,39 +8875,39 @@
         <v>161</v>
       </c>
       <c r="B739" s="1" t="s">
-        <v>328</v>
+        <v>403</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="740">
       <c r="A740" s="1" t="s">
-        <v>806</v>
+        <v>816</v>
       </c>
       <c r="B740" s="1" t="s">
-        <v>509</v>
+        <v>329</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="741">
       <c r="A741" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B741" s="1" t="s">
-        <v>400</v>
+        <v>519</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="742">
       <c r="A742" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B742" s="1" t="s">
-        <v>638</v>
+        <v>401</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="743">
       <c r="A743" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B743" s="1" t="s">
-        <v>807</v>
+        <v>647</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="744">
@@ -8535,23 +8915,23 @@
         <v>207</v>
       </c>
       <c r="B744" s="1" t="s">
-        <v>448</v>
+        <v>817</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="745">
       <c r="A745" s="1" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="B745" s="1" t="s">
-        <v>387</v>
+        <v>451</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="746">
       <c r="A746" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B746" s="1" t="s">
-        <v>523</v>
+        <v>388</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="747">
@@ -8559,119 +8939,119 @@
         <v>195</v>
       </c>
       <c r="B747" s="1" t="s">
-        <v>454</v>
+        <v>532</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="748">
       <c r="A748" s="1" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="B748" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="749">
       <c r="A749" s="1" t="s">
-        <v>746</v>
+        <v>756</v>
       </c>
       <c r="B749" s="1" t="s">
-        <v>668</v>
+        <v>473</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="750">
       <c r="A750" s="1" t="s">
-        <v>808</v>
+        <v>818</v>
       </c>
       <c r="B750" s="1" t="s">
-        <v>599</v>
+        <v>677</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="751">
       <c r="A751" s="1" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="B751" s="1" t="s">
-        <v>809</v>
+        <v>608</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="752">
       <c r="A752" s="1" t="s">
-        <v>657</v>
+        <v>667</v>
       </c>
       <c r="B752" s="1" t="s">
-        <v>803</v>
+        <v>819</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="753">
       <c r="A753" s="1" t="s">
-        <v>751</v>
+        <v>761</v>
       </c>
       <c r="B753" s="1" t="s">
-        <v>695</v>
+        <v>813</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="754">
       <c r="A754" s="1" t="s">
-        <v>810</v>
+        <v>820</v>
       </c>
       <c r="B754" s="1" t="s">
-        <v>664</v>
+        <v>705</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="755">
       <c r="A755" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B755" s="1" t="s">
-        <v>805</v>
+        <v>673</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="756">
       <c r="A756" s="1" t="s">
-        <v>789</v>
+        <v>799</v>
       </c>
       <c r="B756" s="1" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="757">
       <c r="A757" s="1" t="s">
-        <v>752</v>
+        <v>762</v>
       </c>
       <c r="B757" s="1" t="s">
-        <v>799</v>
+        <v>821</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="758">
       <c r="A758" s="1" t="s">
-        <v>781</v>
+        <v>791</v>
       </c>
       <c r="B758" s="1" t="s">
-        <v>689</v>
+        <v>808</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="759">
       <c r="A759" s="1" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
       <c r="B759" s="1" t="s">
-        <v>680</v>
+        <v>698</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="760">
       <c r="A760" s="1" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="B760" s="1" t="s">
-        <v>162</v>
+        <v>689</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="761">
       <c r="A761" s="1" t="s">
-        <v>743</v>
+        <v>753</v>
       </c>
       <c r="B761" s="1" t="s">
-        <v>561</v>
+        <v>162</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="762">
@@ -8679,7 +9059,7 @@
         <v>145</v>
       </c>
       <c r="B762" s="1" t="s">
-        <v>427</v>
+        <v>571</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="763">
@@ -8687,71 +9067,71 @@
         <v>133</v>
       </c>
       <c r="B763" s="1" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="764">
       <c r="A764" s="1" t="s">
-        <v>787</v>
+        <v>797</v>
       </c>
       <c r="B764" s="1" t="s">
-        <v>678</v>
+        <v>440</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="765">
       <c r="A765" s="1" t="s">
-        <v>716</v>
+        <v>726</v>
       </c>
       <c r="B765" s="1" t="s">
-        <v>360</v>
+        <v>688</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="766">
       <c r="A766" s="1" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
       <c r="B766" s="1" t="s">
-        <v>608</v>
+        <v>361</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="767">
       <c r="A767" s="1" t="s">
-        <v>745</v>
+        <v>755</v>
       </c>
       <c r="B767" s="1" t="s">
-        <v>425</v>
+        <v>617</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="768">
       <c r="A768" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B768" s="1" t="s">
-        <v>551</v>
+        <v>428</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="769">
       <c r="A769" s="1" t="s">
-        <v>653</v>
+        <v>663</v>
       </c>
       <c r="B769" s="1" t="s">
-        <v>210</v>
+        <v>561</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="770">
       <c r="A770" s="1" t="s">
-        <v>658</v>
+        <v>669</v>
       </c>
       <c r="B770" s="1" t="s">
-        <v>772</v>
+        <v>210</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="771">
       <c r="A771" s="1" t="s">
-        <v>747</v>
+        <v>757</v>
       </c>
       <c r="B771" s="1" t="s">
-        <v>318</v>
+        <v>782</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="772">
@@ -8759,31 +9139,31 @@
         <v>48</v>
       </c>
       <c r="B772" s="1" t="s">
-        <v>812</v>
+        <v>319</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="773">
       <c r="A773" s="1" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="B773" s="1" t="s">
-        <v>36</v>
+        <v>822</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="774">
       <c r="A774" s="1" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="B774" s="1" t="s">
-        <v>756</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="775">
       <c r="A775" s="1" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
       <c r="B775" s="1" t="s">
-        <v>496</v>
+        <v>766</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="776">
@@ -8791,103 +9171,103 @@
         <v>35</v>
       </c>
       <c r="B776" s="1" t="s">
-        <v>813</v>
+        <v>505</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="777">
       <c r="A777" s="1" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="B777" s="1" t="s">
-        <v>808</v>
+        <v>823</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="778">
       <c r="A778" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B778" s="1" t="s">
-        <v>788</v>
+        <v>818</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="779">
       <c r="A779" s="1" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="B779" s="1" t="s">
-        <v>750</v>
+        <v>798</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="780">
       <c r="A780" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B780" s="1" t="s">
-        <v>810</v>
+        <v>760</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="781">
       <c r="A781" s="1" t="s">
-        <v>778</v>
+        <v>788</v>
       </c>
       <c r="B781" s="1" t="s">
-        <v>28</v>
+        <v>820</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="782">
       <c r="A782" s="1" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="B782" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="783">
       <c r="A783" s="1" t="s">
-        <v>807</v>
+        <v>817</v>
       </c>
       <c r="B783" s="1" t="s">
-        <v>322</v>
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="784">
       <c r="A784" s="1" t="s">
-        <v>813</v>
+        <v>823</v>
       </c>
       <c r="B784" s="1" t="s">
-        <v>184</v>
+        <v>323</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="785">
       <c r="A785" s="1" t="s">
-        <v>802</v>
+        <v>812</v>
       </c>
       <c r="B785" s="1" t="s">
-        <v>673</v>
+        <v>184</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="786">
       <c r="A786" s="1" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B786" s="1" t="s">
-        <v>196</v>
+        <v>683</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="787">
       <c r="A787" s="1" t="s">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="B787" s="1" t="s">
-        <v>814</v>
+        <v>196</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="788">
       <c r="A788" s="1" t="s">
-        <v>782</v>
+        <v>793</v>
       </c>
       <c r="B788" s="1" t="s">
-        <v>512</v>
+        <v>824</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="789">
@@ -8895,111 +9275,111 @@
         <v>187</v>
       </c>
       <c r="B789" s="1" t="s">
-        <v>793</v>
+        <v>522</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="790">
       <c r="A790" s="1" t="s">
-        <v>744</v>
+        <v>754</v>
       </c>
       <c r="B790" s="1" t="s">
-        <v>532</v>
+        <v>803</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="791">
       <c r="A791" s="1" t="s">
-        <v>792</v>
+        <v>802</v>
       </c>
       <c r="B791" s="1" t="s">
-        <v>661</v>
+        <v>541</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="792">
       <c r="A792" s="1" t="s">
-        <v>790</v>
+        <v>801</v>
       </c>
       <c r="B792" s="1" t="s">
-        <v>621</v>
+        <v>671</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="793">
       <c r="A793" s="1" t="s">
-        <v>814</v>
+        <v>824</v>
       </c>
       <c r="B793" s="1" t="s">
-        <v>381</v>
+        <v>630</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="794">
       <c r="A794" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B794" s="1" t="s">
-        <v>755</v>
+        <v>382</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="795">
       <c r="A795" s="1" t="s">
-        <v>801</v>
+        <v>811</v>
       </c>
       <c r="B795" s="1" t="s">
-        <v>168</v>
+        <v>764</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="796">
       <c r="A796" s="1" t="s">
-        <v>717</v>
+        <v>728</v>
       </c>
       <c r="B796" s="1" t="s">
-        <v>729</v>
+        <v>168</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="797">
       <c r="A797" s="1" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="B797" s="1" t="s">
-        <v>475</v>
+        <v>739</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="798">
       <c r="A798" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B798" s="1" t="s">
-        <v>806</v>
+        <v>484</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="799">
       <c r="A799" s="1" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="B799" s="1" t="s">
-        <v>365</v>
+        <v>816</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="800">
       <c r="A800" s="1" t="s">
-        <v>815</v>
+        <v>825</v>
       </c>
       <c r="B800" s="1" t="s">
-        <v>816</v>
+        <v>366</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="801">
       <c r="A801" s="1" t="s">
-        <v>817</v>
+        <v>826</v>
       </c>
       <c r="B801" s="1" t="s">
-        <v>774</v>
+        <v>827</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="802">
       <c r="A802" s="1" t="s">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="B802" s="1" t="s">
-        <v>770</v>
+        <v>783</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="803">
@@ -9007,39 +9387,39 @@
         <v>43</v>
       </c>
       <c r="B803" s="1" t="s">
-        <v>311</v>
+        <v>779</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="804">
       <c r="A804" s="1" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="B804" s="1" t="s">
-        <v>14</v>
+        <v>312</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="805">
       <c r="A805" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B805" s="1" t="s">
-        <v>166</v>
+        <v>14</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="806">
       <c r="A806" s="1" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B806" s="1" t="s">
-        <v>780</v>
+        <v>166</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="807">
       <c r="A807" s="1" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B807" s="1" t="s">
-        <v>194</v>
+        <v>789</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="808">
@@ -9047,47 +9427,47 @@
         <v>212</v>
       </c>
       <c r="B808" s="1" t="s">
-        <v>34</v>
+        <v>194</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="809">
       <c r="A809" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B809" s="1" t="s">
-        <v>791</v>
+        <v>34</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="810">
       <c r="A810" s="1" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="B810" s="1" t="s">
-        <v>590</v>
+        <v>800</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="811">
       <c r="A811" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B811" s="1" t="s">
-        <v>468</v>
+        <v>600</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="812">
       <c r="A812" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B812" s="1" t="s">
-        <v>815</v>
+        <v>478</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="813">
       <c r="A813" s="1" t="s">
-        <v>768</v>
+        <v>778</v>
       </c>
       <c r="B813" s="1" t="s">
-        <v>817</v>
+        <v>825</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="814">
@@ -9095,42 +9475,45 @@
         <v>45</v>
       </c>
       <c r="B814" s="1" t="s">
-        <v>418</v>
+        <v>826</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="815">
       <c r="A815" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B815" s="1" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="816">
       <c r="A816" s="1" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="817">
       <c r="A817" s="1" t="s">
-        <v>816</v>
+        <v>827</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="818">
       <c r="A818" s="1" t="s">
-        <v>812</v>
+        <v>822</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="819">
       <c r="A819" s="1" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="820">
       <c r="A820" s="1" t="s">
-        <v>811</v>
+        <v>821</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="821">
       <c r="A821" s="1" t="s">
-        <v>809</v>
+        <v>819</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="822">
@@ -9140,237 +9523,237 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="823">
       <c r="A823" s="1" t="s">
-        <v>794</v>
+        <v>805</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="824">
       <c r="A824" s="1" t="s">
-        <v>796</v>
+        <v>806</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="825">
       <c r="A825" s="1" t="s">
-        <v>785</v>
+        <v>795</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="826">
       <c r="A826" s="1" t="s">
-        <v>777</v>
+        <v>787</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="827">
       <c r="A827" s="1" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="828">
       <c r="A828" s="1" t="s">
-        <v>769</v>
+        <v>780</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="829">
       <c r="A829" s="1" t="s">
-        <v>767</v>
+        <v>777</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="830">
       <c r="A830" s="1" t="s">
-        <v>766</v>
+        <v>776</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="831">
       <c r="A831" s="1" t="s">
-        <v>765</v>
+        <v>775</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="832">
       <c r="A832" s="1" t="s">
-        <v>758</v>
+        <v>768</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="833">
       <c r="A833" s="1" t="s">
-        <v>741</v>
+        <v>751</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="834">
       <c r="A834" s="1" t="s">
-        <v>734</v>
+        <v>745</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="835">
       <c r="A835" s="1" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="836">
       <c r="A836" s="1" t="s">
-        <v>731</v>
+        <v>741</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="837">
       <c r="A837" s="1" t="s">
-        <v>725</v>
+        <v>736</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="838">
       <c r="A838" s="1" t="s">
-        <v>724</v>
+        <v>734</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="839">
       <c r="A839" s="1" t="s">
-        <v>701</v>
+        <v>711</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="840">
       <c r="A840" s="1" t="s">
-        <v>696</v>
+        <v>707</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="841">
       <c r="A841" s="1" t="s">
-        <v>693</v>
+        <v>704</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="842">
       <c r="A842" s="1" t="s">
-        <v>685</v>
+        <v>696</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="843">
       <c r="A843" s="1" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="844">
       <c r="A844" s="1" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="845">
       <c r="A845" s="1" t="s">
-        <v>671</v>
+        <v>681</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="846">
       <c r="A846" s="1" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="847">
       <c r="A847" s="1" t="s">
-        <v>633</v>
+        <v>644</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="848">
       <c r="A848" s="1" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="849">
       <c r="A849" s="1" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="850">
       <c r="A850" s="1" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="851">
       <c r="A851" s="1" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="852">
       <c r="A852" s="1" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="853">
       <c r="A853" s="1" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="854">
       <c r="A854" s="1" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="855">
       <c r="A855" s="1" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="856">
       <c r="A856" s="1" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="857">
       <c r="A857" s="1" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="858">
       <c r="A858" s="1" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="859">
       <c r="A859" s="1" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="860">
       <c r="A860" s="1" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="861">
       <c r="A861" s="1" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="862">
       <c r="A862" s="1" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="863">
       <c r="A863" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="864">
       <c r="A864" s="1" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="865">
       <c r="A865" s="1" t="s">
-        <v>674</v>
+        <v>684</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="866">
       <c r="A866" s="1" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="867">
       <c r="A867" s="1" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="868">
       <c r="A868" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="869">
       <c r="A869" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="870">
@@ -9395,7 +9778,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="874">
       <c r="A874" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="875">
@@ -9420,47 +9803,47 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="879">
       <c r="A879" s="1" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="880">
       <c r="A880" s="1" t="s">
-        <v>669</v>
+        <v>679</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="881">
       <c r="A881" s="1" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="882">
       <c r="A882" s="1" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="883">
       <c r="A883" s="1" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="884">
       <c r="A884" s="1" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="885">
       <c r="A885" s="1" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="886">
       <c r="A886" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="887">
       <c r="A887" s="1" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="888">
@@ -9470,27 +9853,27 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="889">
       <c r="A889" s="1" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="890">
       <c r="A890" s="1" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="891">
       <c r="A891" s="1" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="892">
       <c r="A892" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="893">
       <c r="A893" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="894">
@@ -9510,32 +9893,32 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="897">
       <c r="A897" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="898">
       <c r="A898" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="899">
       <c r="A899" s="1" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="900">
       <c r="A900" s="1" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="901">
       <c r="A901" s="1" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.9" outlineLevel="0" r="902">
       <c r="A902" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -9547,4 +9930,624 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A102"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A11" view="normal" windowProtection="false" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100">
+      <selection activeCell="A13" activeCellId="0" pane="topLeft" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.3"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="24.530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="2" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="1">
+      <c r="A1" s="2" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="2">
+      <c r="A2" s="2" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="3">
+      <c r="A3" s="2" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19.3" outlineLevel="0" r="4">
+      <c r="A4" s="2" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="5">
+      <c r="A5" s="2" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="6">
+      <c r="A6" s="2" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="7">
+      <c r="A7" s="2" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="8">
+      <c r="A8" s="2" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="9">
+      <c r="A9" s="2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="10">
+      <c r="A10" s="2" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="11">
+      <c r="A11" s="2" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="12">
+      <c r="A12" s="2" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19.7" outlineLevel="0" r="13">
+      <c r="A13" s="2" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="14">
+      <c r="A14" s="2" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="15">
+      <c r="A15" s="2" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="16">
+      <c r="A16" s="2" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="17">
+      <c r="A17" s="2" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="18">
+      <c r="A18" s="2" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="19">
+      <c r="A19" s="2" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="20">
+      <c r="A20" s="2" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="21">
+      <c r="A21" s="2" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="22">
+      <c r="A22" s="2" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="23">
+      <c r="A23" s="2" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="24">
+      <c r="A24" s="2" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="25">
+      <c r="A25" s="2" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="26">
+      <c r="A26" s="2" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="27">
+      <c r="A27" s="2" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="28">
+      <c r="A28" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="29">
+      <c r="A29" s="2" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="30">
+      <c r="A30" s="2" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="31">
+      <c r="A31" s="2" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19.3" outlineLevel="0" r="32">
+      <c r="A32" s="2" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="33">
+      <c r="A33" s="2" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="34">
+      <c r="A34" s="2" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="35">
+      <c r="A35" s="2" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="36">
+      <c r="A36" s="2" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="37">
+      <c r="A37" s="2" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="38">
+      <c r="A38" s="2" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="39">
+      <c r="A39" s="2" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="40">
+      <c r="A40" s="2" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="41">
+      <c r="A41" s="2" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="42">
+      <c r="A42" s="2" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="43">
+      <c r="A43" s="2" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="44">
+      <c r="A44" s="2" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="45">
+      <c r="A45" s="2" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="46">
+      <c r="A46" s="2" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="47">
+      <c r="A47" s="2" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="48">
+      <c r="A48" s="2" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19.3" outlineLevel="0" r="49">
+      <c r="A49" s="2" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19.3" outlineLevel="0" r="50">
+      <c r="A50" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="51">
+      <c r="A51" s="2" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="52">
+      <c r="A52" s="2" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="53">
+      <c r="A53" s="2" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="54">
+      <c r="A54" s="2" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="55">
+      <c r="A55" s="2" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="56">
+      <c r="A56" s="2" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="57">
+      <c r="A57" s="2" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="58">
+      <c r="A58" s="2" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="59">
+      <c r="A59" s="2" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="60">
+      <c r="A60" s="2" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="61">
+      <c r="A61" s="2" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="62">
+      <c r="A62" s="2" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19.3" outlineLevel="0" r="63">
+      <c r="A63" s="2" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="64">
+      <c r="A64" s="2" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="65">
+      <c r="A65" s="2" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="66">
+      <c r="A66" s="2" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19.3" outlineLevel="0" r="67">
+      <c r="A67" s="2" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="68">
+      <c r="A68" s="2" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="69">
+      <c r="A69" s="2" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="70">
+      <c r="A70" s="2" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19.3" outlineLevel="0" r="71">
+      <c r="A71" s="2" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="72">
+      <c r="A72" s="2" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="73">
+      <c r="A73" s="2" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="74">
+      <c r="A74" s="2" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="75">
+      <c r="A75" s="2" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="76">
+      <c r="A76" s="2" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="77">
+      <c r="A77" s="2" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="78">
+      <c r="A78" s="2" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="79">
+      <c r="A79" s="2" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="80">
+      <c r="A80" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="81">
+      <c r="A81" s="2" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="82">
+      <c r="A82" s="2" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="83">
+      <c r="A83" s="2" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="84">
+      <c r="A84" s="2" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="85">
+      <c r="A85" s="2" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="86">
+      <c r="A86" s="2" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="87">
+      <c r="A87" s="2" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="88">
+      <c r="A88" s="2" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="89">
+      <c r="A89" s="2" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="90">
+      <c r="A90" s="2" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="91">
+      <c r="A91" s="2" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="92">
+      <c r="A92" s="2" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="93">
+      <c r="A93" s="2" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="94">
+      <c r="A94" s="2" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="95">
+      <c r="A95" s="2" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="96">
+      <c r="A96" s="2" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="97">
+      <c r="A97" s="2" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="98">
+      <c r="A98" s="2" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="99">
+      <c r="A99" s="2" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="100">
+      <c r="A100" s="2" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.1" outlineLevel="0" r="101">
+      <c r="A101" s="2" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19.3" outlineLevel="0" r="102">
+      <c r="A102" s="2" t="s">
+        <v>929</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100">
+      <selection activeCell="B46" activeCellId="0" pane="topLeft" sqref="B46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>